--- a/stability_analysis/data/cases/OperationData_IEEE_118.xlsx
+++ b/stability_analysis/data/cases/OperationData_IEEE_118.xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\SS_pyTOOL\tool\data\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\stability_analysis\stability_analysis\data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE716850-F82A-43D1-ACE8-1B5810DED7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1B512-325C-4087-9122-1EF46E9B197D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4536" yWindow="1104" windowWidth="17280" windowHeight="8880" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
+    <workbookView xWindow="4530" yWindow="1110" windowWidth="17280" windowHeight="8880" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators" sheetId="1" r:id="rId1"/>
     <sheet name="Demand" sheetId="2" r:id="rId2"/>
     <sheet name="Loads" sheetId="3" r:id="rId3"/>
+    <sheet name="Buses" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
   <si>
     <t>Bus Name</t>
   </si>
@@ -441,6 +433,84 @@
   </si>
   <si>
     <t>bus118</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>bus005</t>
+  </si>
+  <si>
+    <t>bus008</t>
+  </si>
+  <si>
+    <t>bus024</t>
+  </si>
+  <si>
+    <t>bus025</t>
+  </si>
+  <si>
+    <t>bus026</t>
+  </si>
+  <si>
+    <t>bus030</t>
+  </si>
+  <si>
+    <t>bus037</t>
+  </si>
+  <si>
+    <t>bus038</t>
+  </si>
+  <si>
+    <t>bus061</t>
+  </si>
+  <si>
+    <t>bus063</t>
+  </si>
+  <si>
+    <t>bus064</t>
+  </si>
+  <si>
+    <t>bus065</t>
+  </si>
+  <si>
+    <t>bus068</t>
+  </si>
+  <si>
+    <t>bus069</t>
+  </si>
+  <si>
+    <t>bus071</t>
+  </si>
+  <si>
+    <t>bus072</t>
+  </si>
+  <si>
+    <t>bus073</t>
+  </si>
+  <si>
+    <t>bus081</t>
+  </si>
+  <si>
+    <t>bus089</t>
+  </si>
+  <si>
+    <t>bus091</t>
+  </si>
+  <si>
+    <t>bus099</t>
+  </si>
+  <si>
+    <t>bus113</t>
+  </si>
+  <si>
+    <t>BusName</t>
   </si>
 </sst>
 </file>
@@ -834,20 +904,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5487896-2B0C-48CA-BF87-846EA5F2012F}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -883,7 +951,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -926,7 +994,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -969,7 +1037,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +1080,7 @@
         <v>156.19999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1055,7 +1123,7 @@
         <v>751.61</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1166,7 @@
         <v>129.16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1209,7 @@
         <v>59.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1184,7 +1252,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1227,7 +1295,7 @@
         <v>244.4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1270,7 +1338,7 @@
         <v>350.97</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1313,7 +1381,7 @@
         <v>264.47000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1356,7 +1424,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1399,7 +1467,7 @@
         <v>10.96</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1442,7 +1510,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1485,7 +1553,7 @@
         <v>28.84</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1528,7 +1596,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1571,7 +1639,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1614,7 +1682,7 @@
         <v>3.68</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1725,7 @@
         <v>37.479999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1700,7 +1768,7 @@
         <v>49.8</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1743,7 +1811,7 @@
         <v>130.69999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1786,7 +1854,7 @@
         <v>508.7</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1829,7 +1897,7 @@
         <v>519.26</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1940,7 @@
         <v>504.99</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1915,7 +1983,7 @@
         <v>274.48</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1958,7 +2026,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2001,7 +2069,7 @@
         <v>253.9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2044,7 +2112,7 @@
         <v>175.8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2100,9 +2168,9 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2113,7 +2181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3738.4350927508381</v>
       </c>
@@ -2124,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2407.7424704040081</v>
       </c>
@@ -2135,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4106.2046060095618</v>
       </c>
@@ -2159,9 +2227,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2203,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2217,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2231,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2245,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2259,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2273,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2287,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2301,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2315,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2329,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2357,7 +2425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2371,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2385,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2399,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2413,7 +2481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2427,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2441,7 +2509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2455,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2469,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2483,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2497,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2511,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2525,7 +2593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2539,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2553,7 +2621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2567,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2581,7 +2649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2595,7 +2663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2609,7 +2677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2623,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2637,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2651,7 +2719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2665,7 +2733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2679,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2707,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2721,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2735,7 +2803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2749,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2763,7 +2831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2777,7 +2845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2791,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2805,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2819,7 +2887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2833,7 +2901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2847,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2861,7 +2929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2875,7 +2943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2889,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2903,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2917,7 +2985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2931,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2945,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -2959,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -2973,7 +3041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -2987,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3001,7 +3069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3015,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -3029,7 +3097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3043,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3057,7 +3125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -3071,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -3085,7 +3153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -3099,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -3113,7 +3181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -3127,7 +3195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -3141,7 +3209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -3155,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3169,7 +3237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -3183,7 +3251,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -3197,7 +3265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3211,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -3225,7 +3293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3239,7 +3307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -3253,7 +3321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -3267,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -3281,7 +3349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -3295,7 +3363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -3309,7 +3377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -3323,7 +3391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -3337,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3351,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -3365,7 +3433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -3379,7 +3447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -3393,7 +3461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -3407,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -3421,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -3435,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3453,4 +3521,931 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B9CFB-C38E-4566-B443-1C5220AAB272}">
+  <dimension ref="A1:B114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B93" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>124</v>
+      </c>
+      <c r="B103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>126</v>
+      </c>
+      <c r="B105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>129</v>
+      </c>
+      <c r="B108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>159</v>
+      </c>
+      <c r="B110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>133</v>
+      </c>
+      <c r="B113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stability_analysis/data/cases/OperationData_IEEE_118.xlsx
+++ b/stability_analysis/data/cases/OperationData_IEEE_118.xlsx
@@ -1,34 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\stability_analysis\stability_analysis\data\cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\StabilityAnalysis\stability_analysis\data\cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE1B512-325C-4087-9122-1EF46E9B197D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4EDBF6-B067-46C6-BD72-717E0272F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="1110" windowWidth="17280" windowHeight="8880" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F5B77F4E-7F7E-4BC2-AB66-EDAA4A3DBABC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Generators" sheetId="1" r:id="rId1"/>
-    <sheet name="Demand" sheetId="2" r:id="rId2"/>
-    <sheet name="Loads" sheetId="3" r:id="rId3"/>
-    <sheet name="Buses" sheetId="5" r:id="rId4"/>
+    <sheet name="Loads" sheetId="7" r:id="rId1"/>
+    <sheet name="Generators_old" sheetId="6" r:id="rId2"/>
+    <sheet name="Generators" sheetId="1" r:id="rId3"/>
+    <sheet name="Demand" sheetId="2" r:id="rId4"/>
+    <sheet name="Loads_Regions" sheetId="3" r:id="rId5"/>
+    <sheet name="Buses" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="163">
   <si>
     <t>Bus Name</t>
   </si>
@@ -511,6 +522,12 @@
   </si>
   <si>
     <t>BusName</t>
+  </si>
+  <si>
+    <t>Pmin_SG</t>
+  </si>
+  <si>
+    <t>Pmin_CIG</t>
   </si>
 </sst>
 </file>
@@ -534,12 +551,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -580,12 +603,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -901,1317 +928,2565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5487896-2B0C-48CA-BF87-846EA5F2012F}">
-  <dimension ref="A1:L29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88713149-C812-47D2-BAD5-8CD63EEF3B49}">
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1.5722889666666667E-2</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>6.1654400000000003E-3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>1.2023044333333335E-2</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>9.2496126666666671E-3</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
+        <v>1.6030725333333332E-2</v>
+      </c>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>5.8576043333333329E-3</v>
+      </c>
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2.158049266666667E-2</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9">
+        <v>1.4488639999999999E-2</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>1.0480958E-2</v>
+      </c>
+      <c r="C10">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>4.315518E-3</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>2.7745933666666667E-2</v>
+      </c>
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>7.7075263333333333E-3</v>
+      </c>
+      <c r="C13">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <f>K2/0.8</f>
-        <v>2126.2874999999999</v>
-      </c>
-      <c r="D2">
-        <f>L2/0.8</f>
-        <v>8.3249999999999993</v>
-      </c>
-      <c r="E2">
-        <f>F2/0.8</f>
-        <v>2134.6124999999997</v>
-      </c>
-      <c r="F2">
-        <v>1707.69</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>E2*0.6</f>
-        <v>1280.7674999999997</v>
-      </c>
-      <c r="I2">
-        <f>-E2*0.4</f>
-        <v>-853.84499999999991</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1701.03</v>
-      </c>
-      <c r="L2">
-        <v>6.66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>3.3094816666666663E-3</v>
+      </c>
+      <c r="C14">
         <v>17</v>
       </c>
-      <c r="B3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>1.8496321E-2</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>1.3872966333333334E-2</v>
+      </c>
+      <c r="C16">
         <v>19</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C29" si="0">K3/0.8</f>
-        <v>78.25</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D29" si="1">L3/0.8</f>
-        <v>156</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E29" si="2">F3/0.8</f>
-        <v>234.25</v>
-      </c>
-      <c r="F3">
-        <v>187.4</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H29" si="3">E3*0.6</f>
-        <v>140.54999999999998</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I29" si="4">-E3*0.4</f>
-        <v>-93.7</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>62.6</v>
-      </c>
-      <c r="L3">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>5.5497673333333337E-3</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18">
+        <v>4.315518E-3</v>
+      </c>
+      <c r="C18">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19">
+        <v>3.0841726666666664E-3</v>
+      </c>
+      <c r="C19">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20">
+        <v>2.157759E-3</v>
+      </c>
+      <c r="C20">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>1.9114898000000002E-2</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <v>5.241930666666666E-3</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>7.3996896666666664E-3</v>
+      </c>
+      <c r="C23">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24">
+        <v>1.3257293666666668E-2</v>
+      </c>
+      <c r="C24">
         <v>31</v>
       </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>195.24999999999997</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>195.24999999999997</v>
-      </c>
-      <c r="F4">
-        <v>156.19999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>117.14999999999998</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>-78.099999999999994</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>156.19999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>1.8188484333333334E-2</v>
+      </c>
+      <c r="C25">
         <v>32</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>939.51249999999993</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>940.51249999999993</v>
-      </c>
-      <c r="F5">
-        <v>752.41</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>564.30749999999989</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>-376.20499999999998</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0.8</v>
-      </c>
-      <c r="L5">
-        <v>751.61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>4.4220463333333329E-3</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>1.1341226333333334E-2</v>
+      </c>
+      <c r="C27">
         <v>34</v>
       </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>86.000000000000014</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>161.44999999999999</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>247.45</v>
-      </c>
-      <c r="F6">
-        <v>197.96</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>148.47</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>-98.98</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>68.800000000000011</v>
-      </c>
-      <c r="L6">
-        <v>129.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7">
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>6.3433366666666669E-3</v>
+      </c>
+      <c r="C28">
+        <v>35</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29">
+        <v>5.959440333333333E-3</v>
+      </c>
+      <c r="C29">
         <v>36</v>
       </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>251.26249999999999</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>74.375</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>325.63749999999999</v>
-      </c>
-      <c r="F7">
-        <v>260.51</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>195.38249999999999</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>-130.255</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>201.01</v>
-      </c>
-      <c r="L7">
-        <v>59.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30">
+        <v>4.8892403333333336E-3</v>
+      </c>
+      <c r="C30">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31">
+        <v>3.583056333333333E-3</v>
+      </c>
+      <c r="C31">
         <v>40</v>
       </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>118.75</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>186.25</v>
-      </c>
-      <c r="F8">
-        <v>149</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>111.75</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="4"/>
-        <v>-74.5</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32">
+        <v>6.7000696666666667E-3</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33">
+        <v>6.7000696666666667E-3</v>
+      </c>
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>3.2594936666666668E-3</v>
+      </c>
+      <c r="C34">
+        <v>43</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35">
+        <v>2.8973276666666666E-3</v>
+      </c>
+      <c r="C35">
+        <v>44</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36">
+        <v>9.5973973333333337E-3</v>
+      </c>
+      <c r="C36">
+        <v>45</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>5.0703229999999998E-3</v>
+      </c>
+      <c r="C37">
+        <v>46</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38">
+        <v>6.1568206666666667E-3</v>
+      </c>
+      <c r="C38">
+        <v>47</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>3.6216596666666669E-3</v>
+      </c>
+      <c r="C39">
+        <v>48</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40">
+        <v>1.5754218333333334E-2</v>
+      </c>
+      <c r="C40">
+        <v>49</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41">
+        <v>3.0784106666666665E-3</v>
+      </c>
+      <c r="C41">
+        <v>50</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42">
+        <v>3.0784106666666665E-3</v>
+      </c>
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43">
+        <v>3.2594936666666668E-3</v>
+      </c>
+      <c r="C43">
+        <v>52</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>4.1649083333333333E-3</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45">
+        <v>2.0462375333333335E-2</v>
+      </c>
+      <c r="C45">
         <v>54</v>
       </c>
-      <c r="L8">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46">
+        <v>1.1408227E-2</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47">
+        <v>1.5210969333333333E-2</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48">
+        <v>2.1729953333333332E-3</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49">
+        <v>2.1729953333333332E-3</v>
+      </c>
+      <c r="C49">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <v>5.0159982333333332E-2</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51">
+        <v>1.4124471666666666E-2</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52">
+        <v>1.3943388666666667E-2</v>
+      </c>
+      <c r="C52">
+        <v>62</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>307.82499999999999</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>305.5</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>613.32500000000005</v>
-      </c>
-      <c r="F9">
-        <v>490.66</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>367.995</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>-245.33000000000004</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>246.26</v>
-      </c>
-      <c r="L9">
-        <v>244.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>494.1875</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>438.71250000000003</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>932.89999999999986</v>
-      </c>
-      <c r="F10">
-        <v>746.31999999999994</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>559.7399999999999</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>-373.15999999999997</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10">
-        <v>395.35</v>
-      </c>
-      <c r="L10">
-        <v>350.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>54</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>178</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>330.58750000000003</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>508.58749999999998</v>
-      </c>
-      <c r="F11">
-        <v>406.87</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>305.15249999999997</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>-203.435</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11">
-        <v>142.4</v>
-      </c>
-      <c r="L11">
-        <v>264.47000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>59</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3121.65</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>37.75</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>3159.3999999999996</v>
-      </c>
-      <c r="F12">
-        <v>2527.52</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>1895.6399999999996</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>-1263.76</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12">
-        <v>2497.3200000000002</v>
-      </c>
-      <c r="L12">
-        <v>30.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13">
-        <v>65</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>937.16250000000002</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>13.700000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>950.86250000000007</v>
-      </c>
-      <c r="F13">
-        <v>760.69</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>570.51750000000004</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>-380.34500000000003</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>749.73</v>
-      </c>
-      <c r="L13">
-        <v>10.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14">
+      <c r="B53">
+        <v>7.0622356666666664E-3</v>
+      </c>
+      <c r="C53">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54">
+        <v>5.0703229999999998E-3</v>
+      </c>
+      <c r="C54">
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>1.9167171333333333E-2</v>
+      </c>
+      <c r="C55">
         <v>70</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>4.7249999999999996</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>404.72499999999997</v>
-      </c>
-      <c r="F14">
-        <v>323.77999999999997</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>242.83499999999998</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="4"/>
-        <v>-161.88999999999999</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>320</v>
-      </c>
-      <c r="L14">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>72</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="0"/>
-        <v>406.25</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>36.049999999999997</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>442.29999999999995</v>
-      </c>
-      <c r="F15">
-        <v>353.84</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>265.37999999999994</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="4"/>
-        <v>-176.92</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>325</v>
-      </c>
-      <c r="L15">
-        <v>28.84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16">
-        <v>73</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="0"/>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56">
+        <v>1.9747995666666667E-2</v>
+      </c>
+      <c r="C56">
+        <v>74</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>99</v>
+      </c>
+      <c r="B57">
+        <v>1.3649349999999999E-2</v>
+      </c>
+      <c r="C57">
+        <v>75</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>1.2313642333333333E-2</v>
+      </c>
+      <c r="C58">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59">
+        <v>1.1046061000000001E-2</v>
+      </c>
+      <c r="C59">
+        <v>77</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60">
+        <v>1.2856891E-2</v>
+      </c>
+      <c r="C60">
+        <v>78</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61">
+        <v>7.0622356666666664E-3</v>
+      </c>
+      <c r="C61">
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>104</v>
+      </c>
+      <c r="B62">
+        <v>2.3540786333333331E-2</v>
+      </c>
+      <c r="C62">
+        <v>80</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63">
+        <v>2.4205666000000001E-2</v>
+      </c>
+      <c r="C63">
+        <v>82</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64">
+        <v>8.9650620000000011E-3</v>
+      </c>
+      <c r="C64">
+        <v>83</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65">
+        <v>4.9307830000000002E-3</v>
+      </c>
+      <c r="C65">
+        <v>84</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66">
+        <v>1.0758073999999999E-2</v>
+      </c>
+      <c r="C66">
+        <v>85</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67">
+        <v>9.4133150000000002E-3</v>
+      </c>
+      <c r="C67">
+        <v>86</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68">
+        <v>2.1516147999999999E-2</v>
+      </c>
+      <c r="C68">
+        <v>88</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69">
+        <v>3.496374E-2</v>
+      </c>
+      <c r="C69">
+        <v>90</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70">
+        <v>2.9136448999999998E-2</v>
+      </c>
+      <c r="C70">
+        <v>92</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71">
+        <v>5.3790360000000002E-3</v>
+      </c>
+      <c r="C71">
+        <v>93</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72">
+        <v>1.3447592E-2</v>
+      </c>
+      <c r="C72">
+        <v>94</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73">
+        <v>1.882663E-2</v>
+      </c>
+      <c r="C73">
+        <v>95</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>1.7033615999999998E-2</v>
+      </c>
+      <c r="C74">
+        <v>96</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75">
+        <v>2.7162450000000004E-3</v>
+      </c>
+      <c r="C75">
+        <v>97</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76">
+        <v>6.1568206666666667E-3</v>
+      </c>
+      <c r="C76">
+        <v>98</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>119</v>
+      </c>
+      <c r="B77">
+        <v>1.6585363000000002E-2</v>
+      </c>
+      <c r="C77">
+        <v>100</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B78">
+        <v>9.8615679999999994E-3</v>
+      </c>
+      <c r="C78">
+        <v>101</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79">
+        <v>2.2412650000000001E-3</v>
+      </c>
+      <c r="C79">
+        <v>102</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80">
+        <v>1.0309821E-2</v>
+      </c>
+      <c r="C80">
+        <v>103</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81">
+        <v>1.7033615999999998E-2</v>
+      </c>
+      <c r="C81">
+        <v>104</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82">
+        <v>1.3895844999999999E-2</v>
+      </c>
+      <c r="C82">
+        <v>105</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>125</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>31.337499999999999</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>156.33749999999998</v>
-      </c>
-      <c r="F16">
-        <v>125.07</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>93.802499999999981</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
-        <v>-62.534999999999997</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
-      </c>
-      <c r="L16">
-        <v>25.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1109.7124999999999</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>1140.9624999999999</v>
-      </c>
-      <c r="F17">
-        <v>912.77</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>684.57749999999987</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="4"/>
-        <v>-456.38499999999999</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>887.77</v>
-      </c>
-      <c r="L17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18">
-        <v>77</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1991.6874999999998</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>1996.2874999999999</v>
-      </c>
-      <c r="F18">
-        <v>1597.03</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>1197.7724999999998</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="4"/>
-        <v>-798.51499999999999</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>1593.35</v>
-      </c>
-      <c r="L18">
-        <v>3.68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19">
-        <v>80</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="0"/>
-        <v>3323.2249999999999</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>46.849999999999994</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>3370.0749999999998</v>
-      </c>
-      <c r="F19">
-        <v>2696.06</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>2022.0449999999998</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="4"/>
-        <v>-1348.03</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>2658.58</v>
-      </c>
-      <c r="L19">
-        <v>37.479999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20">
-        <v>85</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="0"/>
-        <v>162.48750000000001</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>62.249999999999993</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>224.73749999999998</v>
-      </c>
-      <c r="F20">
-        <v>179.79</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>134.84249999999997</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="4"/>
-        <v>-89.894999999999996</v>
-      </c>
-      <c r="J20">
+      <c r="B83">
+        <v>1.9274883E-2</v>
+      </c>
+      <c r="C83">
+        <v>106</v>
+      </c>
+      <c r="D83">
         <v>3</v>
       </c>
-      <c r="K20">
-        <v>129.99</v>
-      </c>
-      <c r="L20">
-        <v>49.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21">
-        <v>89</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1164.375</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>163.37499999999997</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>1327.75</v>
-      </c>
-      <c r="F21">
-        <v>1062.2</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>796.65</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="4"/>
-        <v>-531.1</v>
-      </c>
-      <c r="J21">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84">
+        <v>1.2384135999999999E-2</v>
+      </c>
+      <c r="C84">
+        <v>107</v>
+      </c>
+      <c r="D84">
         <v>3</v>
       </c>
-      <c r="K21">
-        <v>931.5</v>
-      </c>
-      <c r="L21">
-        <v>130.69999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22">
-        <v>90</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>113.66249999999998</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>635.875</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>749.53749999999991</v>
-      </c>
-      <c r="F22">
-        <v>599.63</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="3"/>
-        <v>449.72249999999991</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="4"/>
-        <v>-299.815</v>
-      </c>
-      <c r="J22">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85">
+        <v>8.9650600000000004E-4</v>
+      </c>
+      <c r="C85">
+        <v>108</v>
+      </c>
+      <c r="D85">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>90.929999999999993</v>
-      </c>
-      <c r="L22">
-        <v>508.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23">
-        <v>92</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1090.125</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>649.07499999999993</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>1739.1999999999998</v>
-      </c>
-      <c r="F23">
-        <v>1391.36</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="3"/>
-        <v>1043.5199999999998</v>
-      </c>
-      <c r="I23">
-        <f t="shared" si="4"/>
-        <v>-695.68</v>
-      </c>
-      <c r="J23">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86">
+        <v>3.5860240000000002E-3</v>
+      </c>
+      <c r="C86">
+        <v>109</v>
+      </c>
+      <c r="D86">
         <v>3</v>
       </c>
-      <c r="K23">
-        <v>872.1</v>
-      </c>
-      <c r="L23">
-        <v>519.26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1031.8999999999999</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>631.23749999999995</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>1663.1374999999998</v>
-      </c>
-      <c r="F24">
-        <v>1330.51</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="3"/>
-        <v>997.88249999999982</v>
-      </c>
-      <c r="I24">
-        <f t="shared" si="4"/>
-        <v>-665.255</v>
-      </c>
-      <c r="J24">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87">
+        <v>1.7481869000000001E-2</v>
+      </c>
+      <c r="C87">
+        <v>110</v>
+      </c>
+      <c r="D87">
         <v>3</v>
       </c>
-      <c r="K24">
-        <v>825.52</v>
-      </c>
-      <c r="L24">
-        <v>504.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25">
-        <v>105</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="0"/>
-        <v>132.8125</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>343.1</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>475.91250000000002</v>
-      </c>
-      <c r="F25">
-        <v>380.73</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>285.54750000000001</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="4"/>
-        <v>-190.36500000000001</v>
-      </c>
-      <c r="J25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>130</v>
+      </c>
+      <c r="B88">
+        <v>1.1206327E-2</v>
+      </c>
+      <c r="C88">
+        <v>112</v>
+      </c>
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="K25">
-        <v>106.25</v>
-      </c>
-      <c r="L25">
-        <v>274.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26">
-        <v>107</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1051.7375</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>373.75</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>1425.4875</v>
-      </c>
-      <c r="F26">
-        <v>1140.3900000000001</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>855.2924999999999</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="4"/>
-        <v>-570.19500000000005</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>841.39</v>
-      </c>
-      <c r="L26">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27">
-        <v>110</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>317.375</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>317.375</v>
-      </c>
-      <c r="F27">
-        <v>253.9</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="3"/>
-        <v>190.42499999999998</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>-126.95</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>253.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28">
-        <v>112</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="0"/>
-        <v>159.9375</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>219.75</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>379.6875</v>
-      </c>
-      <c r="F28">
-        <v>303.75</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="3"/>
-        <v>227.8125</v>
-      </c>
-      <c r="I28">
-        <f t="shared" si="4"/>
-        <v>-151.875</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>127.95</v>
-      </c>
-      <c r="L28">
-        <v>175.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29">
-        <v>113</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="0"/>
-        <v>773.75</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>19.324999999999999</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>793.07500000000005</v>
-      </c>
-      <c r="F29">
-        <v>634.46</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="3"/>
-        <v>475.84500000000003</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>-317.23</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>619</v>
-      </c>
-      <c r="L29">
-        <v>15.46</v>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89">
+        <v>2.4655956666666669E-3</v>
+      </c>
+      <c r="C89">
+        <v>114</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90">
+        <v>6.781112666666666E-3</v>
+      </c>
+      <c r="C90">
+        <v>115</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91">
+        <v>6.1654400000000003E-3</v>
+      </c>
+      <c r="C91">
+        <v>117</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92">
+        <v>5.9757380000000004E-3</v>
+      </c>
+      <c r="C92">
+        <v>118</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFC3C8-B0FD-432F-A10D-A4681A0DE583}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3773571-E13F-4F2E-8DF6-FF059C21E823}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3738.4350927508381</v>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>1704.0438370184049</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2407.7424704040081</v>
+        <f>K2/0.8</f>
+        <v>2126.2874999999999</v>
+      </c>
+      <c r="D2">
+        <f>L2/0.8</f>
+        <v>8.3249999999999993</v>
+      </c>
+      <c r="E2">
+        <f>F2/0.8</f>
+        <v>2134.6124999999997</v>
+      </c>
+      <c r="F2">
+        <v>1707.69</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>E2*0.6</f>
+        <v>1280.7674999999997</v>
+      </c>
+      <c r="I2">
+        <f>-E2*0.4</f>
+        <v>-853.84499999999991</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1701.03</v>
+      </c>
+      <c r="L2">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>596.66064997488832</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4106.2046060095618</v>
+        <f t="shared" ref="C3:D29" si="0">K3/0.8</f>
+        <v>78.25</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E29" si="1">F3/0.8</f>
+        <v>234.25</v>
+      </c>
+      <c r="F3">
+        <v>187.4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="2">E3*0.6</f>
+        <v>140.54999999999998</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I29" si="3">-E3*0.4</f>
+        <v>-93.7</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>62.6</v>
+      </c>
+      <c r="L3">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>1331.3923090559531</v>
+        <v>31</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>195.24999999999997</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>195.24999999999997</v>
+      </c>
+      <c r="F4">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>117.14999999999998</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>-78.099999999999994</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>156.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>939.51249999999993</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>940.51249999999993</v>
+      </c>
+      <c r="F5">
+        <v>752.41</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>564.30749999999989</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-376.20499999999998</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>751.61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>86.000000000000014</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>161.44999999999999</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>247.45</v>
+      </c>
+      <c r="F6">
+        <v>197.96</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>148.47</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>-98.98</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>68.800000000000011</v>
+      </c>
+      <c r="L6">
+        <v>129.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>251.26249999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>74.375</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>325.63749999999999</v>
+      </c>
+      <c r="F7">
+        <v>260.51</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>195.38249999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-130.255</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>201.01</v>
+      </c>
+      <c r="L7">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>118.75</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>186.25</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>111.75</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>-74.5</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>54</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>307.82499999999999</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>305.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>613.32500000000005</v>
+      </c>
+      <c r="F9">
+        <v>490.66</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>367.995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>-245.33000000000004</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>246.26</v>
+      </c>
+      <c r="L9">
+        <v>244.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>494.1875</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>438.71250000000003</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>932.89999999999986</v>
+      </c>
+      <c r="F10">
+        <v>746.31999999999994</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>559.7399999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-373.15999999999997</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>395.35</v>
+      </c>
+      <c r="L10">
+        <v>350.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>178</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>330.58750000000003</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>508.58749999999998</v>
+      </c>
+      <c r="F11">
+        <v>406.87</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>305.15249999999997</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-203.435</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>142.4</v>
+      </c>
+      <c r="L11">
+        <v>264.47000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3121.65</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>37.75</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>3159.3999999999996</v>
+      </c>
+      <c r="F12">
+        <v>2527.52</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1895.6399999999996</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>-1263.76</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2497.3200000000002</v>
+      </c>
+      <c r="L12">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>937.16250000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>13.700000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>950.86250000000007</v>
+      </c>
+      <c r="F13">
+        <v>760.69</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>570.51750000000004</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>-380.34500000000003</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>749.73</v>
+      </c>
+      <c r="L13">
+        <v>10.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>404.72499999999997</v>
+      </c>
+      <c r="F14">
+        <v>323.77999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>242.83499999999998</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>-161.88999999999999</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>320</v>
+      </c>
+      <c r="L14">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>406.25</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>36.049999999999997</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>442.29999999999995</v>
+      </c>
+      <c r="F15">
+        <v>353.84</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>265.37999999999994</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-176.92</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>325</v>
+      </c>
+      <c r="L15">
+        <v>28.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>31.337499999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>156.33749999999998</v>
+      </c>
+      <c r="F16">
+        <v>125.07</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>93.802499999999981</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>-62.534999999999997</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1109.7124999999999</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>1140.9624999999999</v>
+      </c>
+      <c r="F17">
+        <v>912.77</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>684.57749999999987</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-456.38499999999999</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>887.77</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1991.6874999999998</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1996.2874999999999</v>
+      </c>
+      <c r="F18">
+        <v>1597.03</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>1197.7724999999998</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>-798.51499999999999</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1593.35</v>
+      </c>
+      <c r="L18">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>3323.2249999999999</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>46.849999999999994</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>3370.0749999999998</v>
+      </c>
+      <c r="F19">
+        <v>2696.06</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>2022.0449999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>-1348.03</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2658.58</v>
+      </c>
+      <c r="L19">
+        <v>37.479999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>162.48750000000001</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>62.249999999999993</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>224.73749999999998</v>
+      </c>
+      <c r="F20">
+        <v>179.79</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>134.84249999999997</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>-89.894999999999996</v>
+      </c>
+      <c r="J20">
         <v>3</v>
+      </c>
+      <c r="K20">
+        <v>129.99</v>
+      </c>
+      <c r="L20">
+        <v>49.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1164.375</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>163.37499999999997</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1327.75</v>
+      </c>
+      <c r="F21">
+        <v>1062.2</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>796.65</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>-531.1</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>931.5</v>
+      </c>
+      <c r="L21">
+        <v>130.69999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>113.66249999999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>635.875</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>749.53749999999991</v>
+      </c>
+      <c r="F22">
+        <v>599.63</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>449.72249999999991</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>-299.815</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>90.929999999999993</v>
+      </c>
+      <c r="L22">
+        <v>508.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1090.125</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>649.07499999999993</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1739.1999999999998</v>
+      </c>
+      <c r="F23">
+        <v>1391.36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>1043.5199999999998</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>-695.68</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>872.1</v>
+      </c>
+      <c r="L23">
+        <v>519.26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1031.8999999999999</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>631.23749999999995</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>1663.1374999999998</v>
+      </c>
+      <c r="F24">
+        <v>1330.51</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>997.88249999999982</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>-665.255</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>825.52</v>
+      </c>
+      <c r="L24">
+        <v>504.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>132.8125</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>343.1</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>475.91250000000002</v>
+      </c>
+      <c r="F25">
+        <v>380.73</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>285.54750000000001</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>-190.36500000000001</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>106.25</v>
+      </c>
+      <c r="L25">
+        <v>274.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1051.7375</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>373.75</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1425.4875</v>
+      </c>
+      <c r="F26">
+        <v>1140.3900000000001</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>855.2924999999999</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>-570.19500000000005</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>841.39</v>
+      </c>
+      <c r="L26">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>317.375</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>317.375</v>
+      </c>
+      <c r="F27">
+        <v>253.9</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>190.42499999999998</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>-126.95</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>253.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>159.9375</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>219.75</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>379.6875</v>
+      </c>
+      <c r="F28">
+        <v>303.75</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>227.8125</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>-151.875</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>127.95</v>
+      </c>
+      <c r="L28">
+        <v>175.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>113</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>773.75</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>19.324999999999999</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>793.07500000000005</v>
+      </c>
+      <c r="F29">
+        <v>634.46</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>475.84500000000003</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>-317.23</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>619</v>
+      </c>
+      <c r="L29">
+        <v>15.46</v>
       </c>
     </row>
   </sheetData>
@@ -2220,16 +3495,1598 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5487896-2B0C-48CA-BF87-846EA5F2012F}">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <f>K2/0.95</f>
+        <v>1790.5578947368422</v>
+      </c>
+      <c r="D2">
+        <f>L2/0.95</f>
+        <v>7.0105263157894742</v>
+      </c>
+      <c r="E2">
+        <f>F2/0.95</f>
+        <v>1797.5684210526317</v>
+      </c>
+      <c r="F2">
+        <v>1707.69</v>
+      </c>
+      <c r="G2">
+        <f>E2*0.2</f>
+        <v>359.51368421052638</v>
+      </c>
+      <c r="H2">
+        <f>F2*0.33</f>
+        <v>563.53770000000009</v>
+      </c>
+      <c r="I2">
+        <f>-F2*0.33</f>
+        <v>-563.53770000000009</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1701.03</v>
+      </c>
+      <c r="L2">
+        <v>6.66</v>
+      </c>
+      <c r="M2">
+        <f>C2*0.2</f>
+        <v>358.11157894736846</v>
+      </c>
+      <c r="N2">
+        <f>D2*0.2</f>
+        <v>1.402105263157895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C29" si="0">K3/0.95</f>
+        <v>65.894736842105274</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D29" si="1">L3/0.95</f>
+        <v>131.36842105263159</v>
+      </c>
+      <c r="E3">
+        <f>F3/0.95</f>
+        <v>197.26315789473685</v>
+      </c>
+      <c r="F3" s="3">
+        <f>187.4</f>
+        <v>187.4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G29" si="2">E3*0.2</f>
+        <v>39.452631578947376</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="3">F3*0.33</f>
+        <v>61.842000000000006</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I29" si="4">-F3*0.33</f>
+        <v>-61.842000000000006</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>62.6</v>
+      </c>
+      <c r="L3">
+        <v>124.8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M29" si="5">C3*0.2</f>
+        <v>13.178947368421056</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N29" si="6">D3*0.2</f>
+        <v>26.273684210526319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>164.42105263157893</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E29" si="7">F4/0.95</f>
+        <v>164.42105263157893</v>
+      </c>
+      <c r="F4" s="3">
+        <f>156.2</f>
+        <v>156.19999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>32.88421052631579</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>51.545999999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>-51.545999999999999</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="6"/>
+        <v>32.88421052631579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.8421052631578948</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>791.16842105263163</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="7"/>
+        <v>792.01052631578943</v>
+      </c>
+      <c r="F5">
+        <v>752.41</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>158.40210526315789</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>248.2953</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>-248.2953</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0.8</v>
+      </c>
+      <c r="L5">
+        <v>751.61</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.16842105263157897</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>158.23368421052635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>72.421052631578959</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>135.95789473684212</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="7"/>
+        <v>208.37894736842108</v>
+      </c>
+      <c r="F6">
+        <v>197.96</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>41.675789473684219</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>65.326800000000006</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>-65.326800000000006</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>68.800000000000011</v>
+      </c>
+      <c r="L6">
+        <v>129.16</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>14.484210526315792</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>27.191578947368427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>211.58947368421053</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>62.631578947368425</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="7"/>
+        <v>274.22105263157897</v>
+      </c>
+      <c r="F7">
+        <v>260.51</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>54.844210526315798</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>85.968299999999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>-85.968299999999999</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>201.01</v>
+      </c>
+      <c r="L7">
+        <v>59.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>42.317894736842106</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>12.526315789473685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>56.842105263157897</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="7"/>
+        <v>156.84210526315789</v>
+      </c>
+      <c r="F8">
+        <v>149</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>31.368421052631579</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>49.17</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>-49.17</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>54</v>
+      </c>
+      <c r="L8">
+        <v>95</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>11.368421052631581</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>259.22105263157897</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>257.26315789473688</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="7"/>
+        <v>516.48421052631579</v>
+      </c>
+      <c r="F9">
+        <v>490.66</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>103.29684210526317</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>161.91780000000003</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>-161.91780000000003</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>246.26</v>
+      </c>
+      <c r="L9">
+        <v>244.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>51.844210526315798</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>51.452631578947376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>416.15789473684214</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>369.44210526315794</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="7"/>
+        <v>785.6</v>
+      </c>
+      <c r="F10">
+        <v>746.31999999999994</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>157.12</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>246.28559999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>-246.28559999999999</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>395.35</v>
+      </c>
+      <c r="L10">
+        <v>350.97</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>83.231578947368433</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>73.888421052631585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>54</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>149.89473684210529</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>278.38947368421054</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="7"/>
+        <v>428.2842105263158</v>
+      </c>
+      <c r="F11">
+        <v>406.87</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>85.656842105263166</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>134.2671</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>-134.2671</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>142.4</v>
+      </c>
+      <c r="L11">
+        <v>264.47000000000003</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>29.978947368421061</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>55.677894736842113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>59</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2628.7578947368424</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>31.789473684210527</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="7"/>
+        <v>2660.5473684210529</v>
+      </c>
+      <c r="F12">
+        <v>2527.52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>532.10947368421057</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>834.08159999999998</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>-834.08159999999998</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2497.3200000000002</v>
+      </c>
+      <c r="L12">
+        <v>30.2</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>525.75157894736856</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>6.3578947368421055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>789.18947368421061</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>11.53684210526316</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="7"/>
+        <v>800.7263157894738</v>
+      </c>
+      <c r="F13">
+        <v>760.69</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>160.14526315789476</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>251.02770000000004</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>-251.02770000000004</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>749.73</v>
+      </c>
+      <c r="L13">
+        <v>10.96</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>157.83789473684214</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>2.3073684210526322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>336.84210526315792</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3.9789473684210526</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="7"/>
+        <v>340.82105263157894</v>
+      </c>
+      <c r="F14">
+        <v>323.77999999999997</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>68.164210526315784</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>106.84739999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>-106.84739999999999</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>320</v>
+      </c>
+      <c r="L14">
+        <v>3.78</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>67.368421052631589</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.7957894736842106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>342.10526315789474</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>30.357894736842105</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="7"/>
+        <v>372.46315789473681</v>
+      </c>
+      <c r="F15">
+        <v>353.84</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>74.492631578947368</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>116.7672</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
+        <v>-116.7672</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>325</v>
+      </c>
+      <c r="L15">
+        <v>28.84</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>68.421052631578945</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>6.0715789473684216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>105.26315789473685</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>26.389473684210529</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="7"/>
+        <v>131.65263157894736</v>
+      </c>
+      <c r="F16">
+        <v>125.07</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>26.330526315789474</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>41.273099999999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
+        <v>-41.273099999999999</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>25.07</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>5.2778947368421063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>934.49473684210534</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>26.315789473684212</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>960.8105263157895</v>
+      </c>
+      <c r="F17">
+        <v>912.77</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>192.16210526315791</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>301.21410000000003</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
+        <v>-301.21410000000003</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>887.77</v>
+      </c>
+      <c r="L17">
+        <v>25</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>186.89894736842109</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>5.2631578947368425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1677.2105263157894</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>3.8736842105263163</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="7"/>
+        <v>1681.0842105263159</v>
+      </c>
+      <c r="F18">
+        <v>1597.03</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>336.2168421052632</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>527.01990000000001</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
+        <v>-527.01990000000001</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1593.35</v>
+      </c>
+      <c r="L18">
+        <v>3.68</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>335.44210526315788</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.77473684210526328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2798.5052631578947</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>39.452631578947368</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="7"/>
+        <v>2837.9578947368423</v>
+      </c>
+      <c r="F19">
+        <v>2696.06</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>567.59157894736848</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>889.69979999999998</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
+        <v>-889.69979999999998</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2658.58</v>
+      </c>
+      <c r="L19">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>559.70105263157893</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>7.8905263157894741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>136.83157894736843</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>52.421052631578945</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="7"/>
+        <v>189.25263157894736</v>
+      </c>
+      <c r="F20" s="3">
+        <f>179.79</f>
+        <v>179.79</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>37.850526315789473</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>59.3307</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>-59.3307</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>129.99</v>
+      </c>
+      <c r="L20">
+        <v>49.8</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>27.366315789473688</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>10.48421052631579</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>980.52631578947376</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>137.57894736842104</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="7"/>
+        <v>1118.1052631578948</v>
+      </c>
+      <c r="F21">
+        <v>1062.2</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>223.62105263157898</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>350.52600000000001</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
+        <v>-350.52600000000001</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>931.5</v>
+      </c>
+      <c r="L21">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>196.10526315789477</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>27.515789473684208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>90</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>95.715789473684211</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>535.47368421052636</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="7"/>
+        <v>631.1894736842105</v>
+      </c>
+      <c r="F22">
+        <v>599.63</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>126.23789473684211</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>197.87790000000001</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
+        <v>-197.87790000000001</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22">
+        <v>90.929999999999993</v>
+      </c>
+      <c r="L22">
+        <v>508.7</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>19.143157894736841</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>107.09473684210528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>918.00000000000011</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>546.58947368421059</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="7"/>
+        <v>1464.5894736842106</v>
+      </c>
+      <c r="F23">
+        <v>1391.36</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>292.91789473684213</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>459.14879999999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
+        <v>-459.14879999999999</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>872.1</v>
+      </c>
+      <c r="L23">
+        <v>519.26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>183.60000000000002</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>109.31789473684212</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>100</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>868.96842105263158</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>531.56842105263161</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="7"/>
+        <v>1400.5368421052633</v>
+      </c>
+      <c r="F24">
+        <v>1330.51</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>280.10736842105268</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>439.06830000000002</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>-439.06830000000002</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+      <c r="K24">
+        <v>825.52</v>
+      </c>
+      <c r="L24">
+        <v>504.99</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>173.79368421052632</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>106.31368421052633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>105</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>111.8421052631579</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>288.92631578947373</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="7"/>
+        <v>400.7684210526316</v>
+      </c>
+      <c r="F25">
+        <v>380.73</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>80.153684210526322</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>125.64090000000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
+        <v>-125.64090000000002</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>106.25</v>
+      </c>
+      <c r="L25">
+        <v>274.48</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>22.368421052631582</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>57.785263157894747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>107</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>885.67368421052629</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>314.73684210526318</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="7"/>
+        <v>1200.4105263157896</v>
+      </c>
+      <c r="F26">
+        <v>1140.3900000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>240.08210526315793</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>376.32870000000003</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
+        <v>-376.32870000000003</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>841.39</v>
+      </c>
+      <c r="L26">
+        <v>299</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>177.13473684210527</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>62.947368421052637</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>110</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>267.26315789473688</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="7"/>
+        <v>267.26315789473688</v>
+      </c>
+      <c r="F27">
+        <v>253.9</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>53.452631578947376</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>83.787000000000006</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
+        <v>-83.787000000000006</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>253.9</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>53.452631578947376</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>134.68421052631581</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>185.0526315789474</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="7"/>
+        <v>319.73684210526318</v>
+      </c>
+      <c r="F28">
+        <v>303.75</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>63.947368421052637</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>100.23750000000001</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
+        <v>-100.23750000000001</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>127.95</v>
+      </c>
+      <c r="L28">
+        <v>175.8</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>26.936842105263164</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>37.010526315789484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>113</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>651.57894736842104</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16.273684210526316</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="7"/>
+        <v>667.85263157894747</v>
+      </c>
+      <c r="F29">
+        <v>634.46</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>133.57052631578949</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>209.37180000000004</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>-209.37180000000004</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>619</v>
+      </c>
+      <c r="L29">
+        <v>15.46</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>130.31578947368422</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>3.2547368421052632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CFC3C8-B0FD-432F-A10D-A4681A0DE583}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>3738.4350927508381</v>
+      </c>
+      <c r="B2">
+        <v>1704.0438370184049</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2407.7424704040081</v>
+      </c>
+      <c r="B3">
+        <v>596.66064997488832</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4106.2046060095618</v>
+      </c>
+      <c r="B4">
+        <v>1331.3923090559531</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A5B90E4-2011-40C6-B022-5CECB5A542D3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +5100,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -2257,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -2271,7 +5128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2285,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -2299,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2313,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -2327,7 +5184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -2341,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2355,7 +5212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -2369,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -2383,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2397,7 +5254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2411,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -2425,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -2439,7 +5296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2453,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -2467,7 +5324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2481,7 +5338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -2495,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2509,7 +5366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
@@ -2523,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +5394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -2551,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +5422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -2579,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2593,7 +5450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -2607,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>70</v>
       </c>
@@ -2621,7 +5478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>71</v>
       </c>
@@ -2635,7 +5492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2649,7 +5506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -2663,7 +5520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -2677,7 +5534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>75</v>
       </c>
@@ -2691,7 +5548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>76</v>
       </c>
@@ -2705,7 +5562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -2719,7 +5576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -2733,7 +5590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2747,7 +5604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2761,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -2775,7 +5632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -2789,7 +5646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2803,7 +5660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -2817,7 +5674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2831,7 +5688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -2845,7 +5702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>87</v>
       </c>
@@ -2859,7 +5716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2873,7 +5730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2887,7 +5744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +5758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>91</v>
       </c>
@@ -2915,7 +5772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -2943,7 +5800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -2957,7 +5814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>95</v>
       </c>
@@ -2971,7 +5828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>96</v>
       </c>
@@ -2985,7 +5842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>97</v>
       </c>
@@ -2999,7 +5856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>99</v>
       </c>
@@ -3027,7 +5884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>100</v>
       </c>
@@ -3041,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -3055,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>102</v>
       </c>
@@ -3069,7 +5926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>103</v>
       </c>
@@ -3083,7 +5940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -3097,7 +5954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -3111,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>106</v>
       </c>
@@ -3125,7 +5982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>107</v>
       </c>
@@ -3139,7 +5996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>108</v>
       </c>
@@ -3153,7 +6010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -3167,7 +6024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>110</v>
       </c>
@@ -3181,7 +6038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>111</v>
       </c>
@@ -3195,7 +6052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -3209,7 +6066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>113</v>
       </c>
@@ -3223,7 +6080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -3237,7 +6094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>115</v>
       </c>
@@ -3251,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>116</v>
       </c>
@@ -3265,7 +6122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -3279,7 +6136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -3293,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -3307,7 +6164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -3321,7 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -3335,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -3349,7 +6206,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -3363,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -3377,7 +6234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>125</v>
       </c>
@@ -3391,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -3405,7 +6262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -3419,7 +6276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>128</v>
       </c>
@@ -3433,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>129</v>
       </c>
@@ -3447,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>130</v>
       </c>
@@ -3461,7 +6318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>131</v>
       </c>
@@ -3475,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>132</v>
       </c>
@@ -3489,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>133</v>
       </c>
@@ -3503,7 +6360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>134</v>
       </c>
@@ -3523,7 +6380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995B9CFB-C38E-4566-B443-1C5220AAB272}">
   <dimension ref="A1:B114"/>
   <sheetViews>
@@ -3531,9 +6388,9 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +6398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -3549,7 +6406,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -3557,7 +6414,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -3565,7 +6422,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -3573,7 +6430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>138</v>
       </c>
@@ -3581,7 +6438,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3589,7 +6446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3597,7 +6454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -3605,7 +6462,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -3613,7 +6470,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -3621,7 +6478,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -3629,7 +6486,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -3637,7 +6494,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -3645,7 +6502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -3653,7 +6510,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
@@ -3661,7 +6518,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -3669,7 +6526,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -3677,7 +6534,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -3685,7 +6542,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>60</v>
       </c>
@@ -3693,7 +6550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -3701,7 +6558,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3709,7 +6566,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>140</v>
       </c>
@@ -3717,7 +6574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -3725,7 +6582,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>142</v>
       </c>
@@ -3733,7 +6590,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>63</v>
       </c>
@@ -3741,7 +6598,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -3749,7 +6606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -3757,7 +6614,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>143</v>
       </c>
@@ -3765,7 +6622,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -3773,7 +6630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -3781,7 +6638,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -3789,7 +6646,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -3797,7 +6654,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3805,7 +6662,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -3813,7 +6670,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>144</v>
       </c>
@@ -3821,7 +6678,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -3829,7 +6686,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3837,7 +6694,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>73</v>
       </c>
@@ -3845,7 +6702,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -3853,7 +6710,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -3861,7 +6718,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3869,7 +6726,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -3877,7 +6734,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -3885,7 +6742,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -3893,7 +6750,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -3901,7 +6758,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -3909,7 +6766,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -3917,7 +6774,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -3925,7 +6782,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -3933,7 +6790,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -3941,7 +6798,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -3949,7 +6806,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -3957,7 +6814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -3965,7 +6822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -3973,7 +6830,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -3981,7 +6838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -3989,7 +6846,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -3997,7 +6854,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -4005,7 +6862,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -4013,7 +6870,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -4021,7 +6878,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -4029,7 +6886,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>148</v>
       </c>
@@ -4037,7 +6894,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>149</v>
       </c>
@@ -4045,7 +6902,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>95</v>
       </c>
@@ -4053,7 +6910,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>96</v>
       </c>
@@ -4061,7 +6918,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -4069,7 +6926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -4077,7 +6934,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -4085,7 +6942,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -4093,7 +6950,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -4101,7 +6958,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -4109,7 +6966,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -4117,7 +6974,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -4125,7 +6982,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -4133,7 +6990,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -4141,7 +6998,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -4149,7 +7006,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -4157,7 +7014,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -4165,7 +7022,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -4173,7 +7030,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -4181,7 +7038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -4189,7 +7046,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -4197,7 +7054,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -4205,7 +7062,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -4213,7 +7070,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -4221,7 +7078,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>156</v>
       </c>
@@ -4229,7 +7086,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -4237,7 +7094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>157</v>
       </c>
@@ -4245,7 +7102,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>112</v>
       </c>
@@ -4253,7 +7110,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>113</v>
       </c>
@@ -4261,7 +7118,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -4269,7 +7126,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>115</v>
       </c>
@@ -4277,7 +7134,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>116</v>
       </c>
@@ -4285,7 +7142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>117</v>
       </c>
@@ -4293,7 +7150,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>118</v>
       </c>
@@ -4301,7 +7158,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>158</v>
       </c>
@@ -4309,7 +7166,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -4317,7 +7174,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -4325,7 +7182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -4333,7 +7190,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -4341,7 +7198,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>123</v>
       </c>
@@ -4349,7 +7206,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>124</v>
       </c>
@@ -4357,7 +7214,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>125</v>
       </c>
@@ -4365,7 +7222,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -4373,7 +7230,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -4381,7 +7238,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -4389,7 +7246,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -4397,7 +7254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -4405,7 +7262,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>159</v>
       </c>
@@ -4413,7 +7270,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>131</v>
       </c>
@@ -4421,7 +7278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>132</v>
       </c>
@@ -4429,7 +7286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -4437,7 +7294,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>134</v>
       </c>
